--- a/data/CS4/case9/case9_2040.xlsx
+++ b/data/CS4/case9/case9_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8088FB0-E32B-4200-9205-D77726BBE192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586263C4-F651-4BE5-968A-C92336E2C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47895" yWindow="-14280" windowWidth="19410" windowHeight="20985" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
   <si>
     <t>numScenarios</t>
   </si>
@@ -4400,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -12365,8 +12365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12444,11 +12444,11 @@
       <c r="A7">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -16287,7 +16287,7 @@
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>1.5680716832769497E-3</v>
       </c>
       <c r="E10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -16307,55 +16307,55 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>0.95351558928408131</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>18.890239553808172</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>49.290093261406234</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>61.511611959403844</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>68.321139252080073</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>69.588141172167866</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>68.310322757611758</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>58.327338392612226</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>38.544322026149764</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>9.416830483679254</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>7.3603364725244591E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>6.336289658955838E-3</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>4.8482216329889371E-3</v>
       </c>
       <c r="V10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -16385,7 +16385,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:Y10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17213,7 +17213,7 @@
       </c>
       <c r="C10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>2.7254098360655734E-3</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -17237,51 +17237,51 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>0.76400409836065564</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>15.037377049180325</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>35.77172131147541</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>48.138081967213111</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>59.039606557377041</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>70.114180327868851</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>58.511823770491802</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>42.994487704918036</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>20.624983606557375</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>4.308872950819671</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>2.7540983606557372E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>1.2049180327868851E-2</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -18167,47 +18167,47 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>0.82605669450771946</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>18.037822703113136</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>41.995460010124013</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>60.56169324221716</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>62.344801948873688</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>59.197370918754736</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>46.347538597823331</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>35.702126044039481</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>15.148949633004301</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>2.6744969627942288</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>4.34067324727917E-3</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>1.5680716832769497E-3</v>
       </c>
       <c r="E10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -19097,55 +19097,55 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>0.95351558928408131</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>18.890239553808172</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>49.290093261406234</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>61.511611959403844</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>68.321139252080073</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>69.588141172167866</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>68.310322757611758</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>58.327338392612226</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>38.544322026149764</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>9.416830483679254</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>7.3603364725244591E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>6.336289658955838E-3</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>4.8482216329889371E-3</v>
       </c>
       <c r="V10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="C10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>2.7254098360655734E-3</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -20089,51 +20089,51 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>0.76400409836065564</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>15.037377049180325</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>35.77172131147541</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>48.138081967213111</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>59.039606557377041</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>70.114180327868851</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>58.511823770491802</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>42.994487704918036</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>20.624983606557375</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>4.308872950819671</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>2.7540983606557372E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>1.2049180327868851E-2</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -21019,47 +21019,47 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>0.82605669450771946</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>18.037822703113136</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>41.995460010124013</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>60.56169324221716</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>62.344801948873688</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>59.197370918754736</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>46.347538597823331</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>35.702126044039481</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>15.148949633004301</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>2.6744969627942288</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>4.34067324727917E-3</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -21929,7 +21929,7 @@
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>1.5680716832769497E-3</v>
       </c>
       <c r="E10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21949,55 +21949,55 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>0.95351558928408131</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>18.890239553808172</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>49.290093261406234</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>61.511611959403844</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>68.321139252080073</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>69.588141172167866</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>68.310322757611758</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>58.327338392612226</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>38.544322026149764</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>9.416830483679254</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>7.3603364725244591E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>6.336289658955838E-3</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>4.8482216329889371E-3</v>
       </c>
       <c r="V10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -22855,7 +22855,7 @@
       </c>
       <c r="C10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>2.7254098360655734E-3</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22879,51 +22879,51 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>0.76400409836065564</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>15.037377049180325</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>35.77172131147541</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>48.138081967213111</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>59.039606557377041</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>70.114180327868851</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>58.511823770491802</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>42.994487704918036</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>20.624983606557375</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>4.308872950819671</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>2.7540983606557372E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>1.2049180327868851E-2</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -23809,47 +23809,47 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>0.82605669450771946</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>18.037822703113136</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>41.995460010124013</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>60.56169324221716</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>62.344801948873688</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>59.197370918754736</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>46.347538597823331</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>35.702126044039481</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>15.148949633004301</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>2.6744969627942288</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>4.34067324727917E-3</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>1.9757703209289565E-3</v>
       </c>
       <c r="E10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -49040,55 +49040,55 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>1.1537538630337385</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>23.990604233336377</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>63.584220307214032</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>79.965095547225005</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>82.668578495016888</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>90.464583523818234</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>88.120316357319169</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>74.075719758617524</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>47.40951609216421</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>11.865206409435858</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>9.2740239553808182E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>7.8569991771052401E-3</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>5.8663481759166133E-3</v>
       </c>
       <c r="V10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -49946,7 +49946,7 @@
       </c>
       <c r="C10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>3.4612704918032785E-3</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -49970,51 +49970,51 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>0.99320532786885229</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>19.39821639344262</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>46.145520491803282</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>61.135364098360654</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>76.751488524590158</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>91.1484344262295</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>76.065370901639341</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>52.453274999999998</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>26.193729180327868</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>5.5153573770491793</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>3.3324590163934416E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>1.47E-2</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -50900,47 +50900,47 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>1.024310301189572</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>22.186521924829155</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>52.074370412553769</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>76.913350417615803</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>80.424794514047051</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>71.03684510250568</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>57.007472475322693</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>45.698721336370532</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>19.54214502657555</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>3.4501010820045552</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>5.6428752214629212E-3</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -51810,7 +51810,7 @@
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>1.9757703209289565E-3</v>
       </c>
       <c r="E10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -51830,55 +51830,55 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>1.1537538630337385</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>23.990604233336377</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>63.584220307214032</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>79.965095547225005</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>82.668578495016888</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>90.464583523818234</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>88.120316357319169</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>74.075719758617524</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>47.40951609216421</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>11.865206409435858</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>9.2740239553808182E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>7.8569991771052401E-3</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>5.8663481759166133E-3</v>
       </c>
       <c r="V10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -52736,7 +52736,7 @@
       </c>
       <c r="C10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>3.4612704918032785E-3</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -52760,51 +52760,51 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>0.99320532786885229</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>19.39821639344262</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>46.145520491803282</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>61.135364098360654</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>76.751488524590158</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>91.1484344262295</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>76.065370901639341</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>52.453274999999998</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>26.193729180327868</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>5.5153573770491793</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>3.3324590163934416E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>1.47E-2</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -54709,47 +54709,47 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>1.024310301189572</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>22.186521924829155</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>52.074370412553769</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>76.913350417615803</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>80.424794514047051</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>71.03684510250568</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>57.007472475322693</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>45.698721336370532</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>19.54214502657555</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>3.4501010820045552</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>5.6428752214629212E-3</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -55619,7 +55619,7 @@
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>1.9757703209289565E-3</v>
       </c>
       <c r="E10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -55639,55 +55639,55 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>1.1537538630337385</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>23.990604233336377</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>63.584220307214032</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>79.965095547225005</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>82.668578495016888</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>90.464583523818234</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>88.120316357319169</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>74.075719758617524</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>47.40951609216421</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>11.865206409435858</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>9.2740239553808182E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>7.8569991771052401E-3</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>5.8663481759166133E-3</v>
       </c>
       <c r="V10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -56545,7 +56545,7 @@
       </c>
       <c r="C10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>3.4612704918032785E-3</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -56569,51 +56569,51 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>0.99320532786885229</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>19.39821639344262</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>46.145520491803282</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>61.135364098360654</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>76.751488524590158</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>91.1484344262295</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>76.065370901639341</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>52.453274999999998</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>26.193729180327868</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>5.5153573770491793</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>3.3324590163934416E-2</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>1.47E-2</v>
       </c>
       <c r="U10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -57499,47 +57499,47 @@
       </c>
       <c r="I10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>1.024310301189572</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>22.186521924829155</v>
       </c>
       <c r="K10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>52.074370412553769</v>
       </c>
       <c r="L10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>76.913350417615803</v>
       </c>
       <c r="M10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>80.424794514047051</v>
       </c>
       <c r="N10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>71.03684510250568</v>
       </c>
       <c r="O10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>57.007472475322693</v>
       </c>
       <c r="P10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>45.698721336370532</v>
       </c>
       <c r="Q10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>19.54214502657555</v>
       </c>
       <c r="R10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>3.4501010820045552</v>
       </c>
       <c r="S10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>5.6428752214629212E-3</v>
       </c>
       <c r="T10" s="6">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>

--- a/data/CS4/case9/case9_2040.xlsx
+++ b/data/CS4/case9/case9_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586263C4-F651-4BE5-968A-C92336E2C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02332B1-A68C-44BA-B027-022660D9051C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="-14280" windowWidth="19410" windowHeight="20985" tabRatio="722" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -12365,7 +12365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -44725,7 +44725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046E4C95-D1F9-4584-8CBB-5D0A21D88C72}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
